--- a/Messpunkte_Demonstrator.xlsx
+++ b/Messpunkte_Demonstrator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Codes\Uebung1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05C85E1-8B4B-4308-A436-6BCBC7A7DD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACA074E-6DD7-42C4-AAAA-2ECD75B67E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8C50595-7592-441E-B16F-6E97AF40763B}"/>
   </bookViews>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57113598-AF4E-4A51-AB99-C10A75B98287}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1322,7 +1322,7 @@
         <v>22.5</v>
       </c>
       <c r="D4" s="47">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="38">
         <v>2</v>
@@ -1353,7 +1353,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="47">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E5" s="38">
         <v>2</v>
@@ -1384,7 +1384,7 @@
         <v>53.5</v>
       </c>
       <c r="D6" s="47">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="E6" s="38">
         <v>2</v>
@@ -1415,7 +1415,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="47">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E7" s="38">
         <v>2</v>
@@ -1446,7 +1446,7 @@
         <v>72.5</v>
       </c>
       <c r="D8" s="40">
-        <v>0.5</v>
+        <v>45</v>
       </c>
       <c r="E8" s="40">
         <v>3</v>
@@ -1477,7 +1477,7 @@
         <v>74.5</v>
       </c>
       <c r="D9" s="40">
-        <v>0.6</v>
+        <v>45.5</v>
       </c>
       <c r="E9" s="40">
         <v>3</v>
@@ -1504,7 +1504,7 @@
         <v>82</v>
       </c>
       <c r="D10" s="40">
-        <v>0.7</v>
+        <v>46</v>
       </c>
       <c r="E10" s="40">
         <v>3</v>
@@ -1528,7 +1528,7 @@
         <v>85</v>
       </c>
       <c r="D11" s="40">
-        <v>0.8</v>
+        <v>46.5</v>
       </c>
       <c r="E11" s="40">
         <v>3</v>
@@ -1552,7 +1552,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="40">
-        <v>0.9</v>
+        <v>47</v>
       </c>
       <c r="E12" s="40">
         <v>3</v>
@@ -1576,7 +1576,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="40">
-        <v>1</v>
+        <v>47.5</v>
       </c>
       <c r="E13" s="40">
         <v>3</v>
@@ -1600,7 +1600,7 @@
         <v>104.5</v>
       </c>
       <c r="D14" s="40">
-        <v>1.1000000000000001</v>
+        <v>48</v>
       </c>
       <c r="E14" s="40">
         <v>3</v>
@@ -1624,7 +1624,7 @@
         <v>110.5</v>
       </c>
       <c r="D15" s="40">
-        <v>1.2</v>
+        <v>48.5</v>
       </c>
       <c r="E15" s="40">
         <v>3</v>
@@ -1648,7 +1648,7 @@
         <v>114.5</v>
       </c>
       <c r="D16" s="40">
-        <v>1.3</v>
+        <v>49</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -1668,7 +1668,7 @@
         <v>120.5</v>
       </c>
       <c r="D17" s="40">
-        <v>1.4</v>
+        <v>49.5</v>
       </c>
       <c r="E17" s="40">
         <v>3</v>
@@ -1692,7 +1692,7 @@
         <v>123.5</v>
       </c>
       <c r="D18" s="40">
-        <v>1.5</v>
+        <v>50</v>
       </c>
       <c r="E18" s="40">
         <v>3</v>
@@ -1716,7 +1716,7 @@
         <v>130</v>
       </c>
       <c r="D19" s="40">
-        <v>1.6</v>
+        <v>50</v>
       </c>
       <c r="E19" s="40">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>134</v>
       </c>
       <c r="D20" s="40">
-        <v>1.7</v>
+        <v>50</v>
       </c>
       <c r="E20" s="40">
         <v>3</v>
@@ -1764,7 +1764,7 @@
         <v>139</v>
       </c>
       <c r="D21" s="40">
-        <v>1.8</v>
+        <v>50</v>
       </c>
       <c r="E21" s="40">
         <v>3</v>
@@ -1788,7 +1788,7 @@
         <v>143</v>
       </c>
       <c r="D22" s="40">
-        <v>1.9</v>
+        <v>50</v>
       </c>
       <c r="E22" s="40">
         <v>3</v>
@@ -1812,7 +1812,7 @@
         <v>148</v>
       </c>
       <c r="D23" s="40">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E23" s="40">
         <v>3</v>
@@ -1836,7 +1836,7 @@
         <v>152.5</v>
       </c>
       <c r="D24" s="40">
-        <v>2.1</v>
+        <v>50</v>
       </c>
       <c r="E24" s="40">
         <v>3</v>
@@ -1860,7 +1860,7 @@
         <v>158</v>
       </c>
       <c r="D25" s="40">
-        <v>2.2000000000000002</v>
+        <v>50</v>
       </c>
       <c r="E25" s="40">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>163</v>
       </c>
       <c r="D26" s="40">
-        <v>2.2999999999999998</v>
+        <v>50</v>
       </c>
       <c r="E26" s="40">
         <v>3</v>
@@ -1908,7 +1908,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="40">
-        <v>2.4</v>
+        <v>50</v>
       </c>
       <c r="E27" s="40">
         <v>3</v>
@@ -1932,7 +1932,7 @@
         <v>173</v>
       </c>
       <c r="D28" s="40">
-        <v>2.5</v>
+        <v>50</v>
       </c>
       <c r="E28" s="40">
         <v>3</v>
@@ -1956,7 +1956,7 @@
         <v>178</v>
       </c>
       <c r="D29" s="40">
-        <v>2.6</v>
+        <v>50</v>
       </c>
       <c r="E29" s="40">
         <v>3</v>
@@ -1980,7 +1980,7 @@
         <v>182</v>
       </c>
       <c r="D30" s="40">
-        <v>2.7</v>
+        <v>50</v>
       </c>
       <c r="E30" s="40">
         <v>3</v>
@@ -2004,7 +2004,7 @@
         <v>189.5</v>
       </c>
       <c r="D31" s="40">
-        <v>2.8</v>
+        <v>50</v>
       </c>
       <c r="E31" s="40">
         <v>3</v>
@@ -2028,7 +2028,7 @@
         <v>198.5</v>
       </c>
       <c r="D32" s="40">
-        <v>2.9</v>
+        <v>45</v>
       </c>
       <c r="E32" s="40">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>224</v>
       </c>
       <c r="D33" s="40">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E33" s="40">
         <v>3</v>
@@ -2076,7 +2076,7 @@
         <v>245.5</v>
       </c>
       <c r="D34" s="40">
-        <v>3.1</v>
+        <v>35</v>
       </c>
       <c r="E34" s="40">
         <v>3</v>
@@ -2100,7 +2100,7 @@
         <v>268.5</v>
       </c>
       <c r="D35" s="40">
-        <v>3.2</v>
+        <v>30</v>
       </c>
       <c r="E35" s="40">
         <v>3</v>
@@ -2124,7 +2124,7 @@
         <v>289.5</v>
       </c>
       <c r="D36" s="40">
-        <v>3.3</v>
+        <v>25</v>
       </c>
       <c r="E36" s="40">
         <v>3</v>
@@ -2148,7 +2148,7 @@
         <v>303</v>
       </c>
       <c r="D37" s="40">
-        <v>3.4</v>
+        <v>20</v>
       </c>
       <c r="E37" s="40">
         <v>3</v>
@@ -2172,7 +2172,7 @@
         <v>324</v>
       </c>
       <c r="D38" s="40">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="E38" s="40">
         <v>3</v>
@@ -2196,7 +2196,7 @@
         <v>333.5</v>
       </c>
       <c r="D39" s="40">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="E39" s="40">
         <v>3</v>
@@ -2220,7 +2220,7 @@
         <v>343</v>
       </c>
       <c r="D40" s="40">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="E40" s="40">
         <v>3</v>
@@ -2938,7 +2938,7 @@
         <v>694</v>
       </c>
       <c r="D69" s="42">
-        <v>6.6</v>
+        <v>-6</v>
       </c>
       <c r="E69" s="42">
         <v>4</v>
@@ -2964,7 +2964,7 @@
         <v>708</v>
       </c>
       <c r="D70" s="42">
-        <v>6.7</v>
+        <v>-6</v>
       </c>
       <c r="E70" s="42">
         <v>4</v>
@@ -2988,7 +2988,7 @@
         <v>726.5</v>
       </c>
       <c r="D71" s="42">
-        <v>6.8</v>
+        <v>-6</v>
       </c>
       <c r="E71" s="42">
         <v>2</v>
@@ -3012,7 +3012,7 @@
         <v>739.5</v>
       </c>
       <c r="D72" s="42">
-        <v>6.9</v>
+        <v>-6</v>
       </c>
       <c r="E72" s="42">
         <v>2</v>
@@ -3036,7 +3036,7 @@
         <v>752.5</v>
       </c>
       <c r="D73" s="42">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="E73" s="42">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>762</v>
       </c>
       <c r="D74" s="42">
-        <v>7.1</v>
+        <v>-6</v>
       </c>
       <c r="E74" s="42">
         <v>2</v>
@@ -3084,7 +3084,7 @@
         <v>767.5</v>
       </c>
       <c r="D75" s="42">
-        <v>7.2</v>
+        <v>-6</v>
       </c>
       <c r="E75" s="42">
         <v>2</v>
@@ -3108,7 +3108,7 @@
         <v>770.5</v>
       </c>
       <c r="D76" s="42">
-        <v>7.3</v>
+        <v>-6</v>
       </c>
       <c r="E76" s="42">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>776.5</v>
       </c>
       <c r="D77" s="42">
-        <v>7.4</v>
+        <v>-6</v>
       </c>
       <c r="E77" s="42">
         <v>2</v>
@@ -3156,7 +3156,7 @@
         <v>779.5</v>
       </c>
       <c r="D78" s="42">
-        <v>7.5</v>
+        <v>-6</v>
       </c>
       <c r="E78" s="42">
         <v>2</v>
@@ -3180,7 +3180,7 @@
         <v>791.5</v>
       </c>
       <c r="D79" s="42">
-        <v>7.6000000000000103</v>
+        <v>-6</v>
       </c>
       <c r="E79" s="42">
         <v>2</v>
@@ -3204,7 +3204,7 @@
         <v>804.5</v>
       </c>
       <c r="D80" s="42">
-        <v>7.7000000000000099</v>
+        <v>-6</v>
       </c>
       <c r="E80" s="42">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>816.5</v>
       </c>
       <c r="D81" s="42">
-        <v>7.8000000000000096</v>
+        <v>-6</v>
       </c>
       <c r="E81" s="42">
         <v>2</v>
@@ -3252,7 +3252,7 @@
         <v>831.5</v>
       </c>
       <c r="D82" s="42">
-        <v>7.9000000000000101</v>
+        <v>-6</v>
       </c>
       <c r="E82" s="42">
         <v>2</v>
@@ -3276,7 +3276,7 @@
         <v>846</v>
       </c>
       <c r="D83" s="42">
-        <v>8.0000000000000107</v>
+        <v>-6</v>
       </c>
       <c r="E83" s="42">
         <v>2</v>
@@ -3300,7 +3300,7 @@
         <v>861</v>
       </c>
       <c r="D84" s="42">
-        <v>8.1000000000000103</v>
+        <v>-6</v>
       </c>
       <c r="E84" s="42">
         <v>2</v>
@@ -3324,7 +3324,7 @@
         <v>876</v>
       </c>
       <c r="D85" s="42">
-        <v>8.2000000000000099</v>
+        <v>-6</v>
       </c>
       <c r="E85" s="42">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>890</v>
       </c>
       <c r="D86" s="42">
-        <v>8.3000000000000096</v>
+        <v>-6</v>
       </c>
       <c r="E86" s="42">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>904</v>
       </c>
       <c r="D87" s="42">
-        <v>8.4000000000000092</v>
+        <v>-6</v>
       </c>
       <c r="E87" s="42">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>915</v>
       </c>
       <c r="D88" s="42">
-        <v>8.5000000000000107</v>
+        <v>-6</v>
       </c>
       <c r="E88" s="42">
         <v>2</v>
@@ -3420,7 +3420,7 @@
         <v>924</v>
       </c>
       <c r="D89" s="42">
-        <v>8.6000000000000103</v>
+        <v>-6</v>
       </c>
       <c r="E89" s="42">
         <v>2</v>
@@ -3444,7 +3444,7 @@
         <v>928.5</v>
       </c>
       <c r="D90" s="42">
-        <v>8.7000000000000099</v>
+        <v>-6</v>
       </c>
       <c r="E90" s="42">
         <v>2</v>
@@ -3468,7 +3468,7 @@
         <v>938</v>
       </c>
       <c r="D91" s="42">
-        <v>8.8000000000000096</v>
+        <v>-6</v>
       </c>
       <c r="E91" s="42">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>944.5</v>
       </c>
       <c r="D92" s="42">
-        <v>8.9000000000000092</v>
+        <v>-6</v>
       </c>
       <c r="E92" s="42">
         <v>2</v>
@@ -3520,7 +3520,7 @@
         <v>949</v>
       </c>
       <c r="D93" s="42">
-        <v>9.0000000000000107</v>
+        <v>-6</v>
       </c>
       <c r="E93" s="42">
         <v>2</v>
@@ -3546,7 +3546,7 @@
         <v>955</v>
       </c>
       <c r="D94" s="42">
-        <v>9.1000000000000103</v>
+        <v>-6</v>
       </c>
       <c r="E94" s="42">
         <v>2</v>
